--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sujal Sahu\Desktop\APPLY AUTOMATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8ABA37F-FB31-4963-8018-59719DB542C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F45032C-D181-4E71-8D9E-0D1E8CA3F081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,15 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="Security_resume.pdf">Sheet1!$I$7:$I$8</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>RecipientEmail</t>
   </si>
@@ -74,13 +77,31 @@
     <t>ResumeOption</t>
   </si>
   <si>
-    <t>Penetration Testing</t>
-  </si>
-  <si>
-    <t>Resume.pdf</t>
-  </si>
-  <si>
-    <t>swagata@cybersrcc.com</t>
+    <t>Security_resume.pdf</t>
+  </si>
+  <si>
+    <t>Devops_resume.pdf</t>
+  </si>
+  <si>
+    <t>VAPT</t>
+  </si>
+  <si>
+    <t>Resume List</t>
+  </si>
+  <si>
+    <t>Skills list</t>
+  </si>
+  <si>
+    <t>Cloud AWS</t>
+  </si>
+  <si>
+    <t>sujal020404@gmail.com</t>
+  </si>
+  <si>
+    <t>VAPT Intern</t>
+  </si>
+  <si>
+    <t>safe your web Pvt. Ltd</t>
   </si>
 </sst>
 </file>
@@ -154,7 +175,25 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -165,6 +204,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DE2B5FEE-0422-4848-A29A-88646F4A01D6}" name="Table2" displayName="Table2" ref="A1:E26" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:E26" xr:uid="{DE2B5FEE-0422-4848-A29A-88646F4A01D6}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{98F3E660-574F-4D3E-8587-8070B2A47343}" name="RecipientEmail"/>
+    <tableColumn id="2" xr3:uid="{CAE5F4C1-17B5-41D6-9C8A-ED43F5EB6FB1}" name="JobPosition"/>
+    <tableColumn id="3" xr3:uid="{CA1826BD-2CD4-4F3C-83D3-46D070B07E9A}" name="CompanyName"/>
+    <tableColumn id="4" xr3:uid="{8E24A2E1-4E7A-41AA-B5AD-D9EC995D1E68}" name="Skills"/>
+    <tableColumn id="5" xr3:uid="{C37DB000-67D1-49B0-935E-7E436D27A79C}" name="ResumeOption"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -368,10 +421,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -381,9 +434,12 @@
     <col min="3" max="3" width="38.88671875" customWidth="1"/>
     <col min="4" max="4" width="24.109375" customWidth="1"/>
     <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" customWidth="1"/>
+    <col min="10" max="10" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -400,32 +456,70 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="I9" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E280" xr:uid="{18016111-73EF-4EF6-B83E-322CCDABBE0E}">
+      <formula1>$H$8:$H$9</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D27:D445 D2:D26" xr:uid="{6BB50DB0-324F-4FFA-96EF-509AD294D5AB}">
+      <formula1>$I$8:$I$9</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{BD599D33-31E3-4F8F-97F7-85AAB9409F1F}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{D1B64FD3-6A63-45A2-87F6-7D95E1AEE86D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
